--- a/Master/Master.Manager/DataTest/z.xlsx
+++ b/Master/Master.Manager/DataTest/z.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\Master\Master.Manager\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16578269-B873-44C0-9533-68ED0E6D2200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76325CCE-0B22-4CEB-8781-01C6D49E93D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ورقة1!$V$1:$V$40</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -500,14 +503,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35:W40"/>
+    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="20.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="18" width="10.8984375" customWidth="1"/>
     <col min="20" max="20" width="4.5" customWidth="1"/>
-    <col min="21" max="22" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="24.796875" customWidth="1"/>
+    <col min="22" max="22" width="14.8984375" customWidth="1"/>
     <col min="23" max="23" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3352,6 +3361,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="V1:V40" xr:uid="{AA7EEF66-7013-4965-8D83-C1DCF0B892AA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>